--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>857489.4022097084</v>
+        <v>860487.2337948845</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238722</v>
+        <v>1667317.432543013</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461769</v>
+        <v>7966425.477977813</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7480465.524881528</v>
+        <v>7945998.501803754</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>14.05164507995854</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>25.35996799970812</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>86.21555506722254</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>125.245615900656</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>152.2648500452755</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>296.9625607662613</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>24.63027192544009</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1201,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1309,7 +1311,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>31.31896351648546</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>320.5127299397348</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>206.5572436900142</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1613,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>322.3036259277429</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>196.7816047467303</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1846,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>164.6862898438033</v>
       </c>
       <c r="D17" t="n">
-        <v>326.4327246258911</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1904,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2083,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>276.8029036011466</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>64.5451112166599</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -2296,16 +2298,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>66.03149870010071</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>97.61153143263797</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2320,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>71.09739669553051</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>256.7115579699408</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>118.9046835062787</v>
       </c>
       <c r="G25" t="n">
-        <v>113.1667354347865</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2561,19 +2563,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>272.8191146217216</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>3.119925841949662</v>
       </c>
     </row>
     <row r="27">
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>133.6001941467925</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>23.07869429521026</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>108.8247535352254</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>122.5460068374314</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>26.03331785856546</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -3010,7 +3012,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,10 +3034,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>1.414306849824213</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>302.1480073738686</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -3095,7 +3097,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5.862425769103664</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>328.9373190147139</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>91.86313846158183</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.024008024449764</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,13 +3505,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3521,7 +3523,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>40.78780432591522</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>293.1452515095147</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3443349115068</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>22.0847886935751</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>64.41872800020292</v>
       </c>
       <c r="E41" t="n">
-        <v>353.1255464061311</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3755,10 +3757,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3910,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>112.5633434999038</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>229.2671475085632</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>86.42747502111025</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>105.1499684380558</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440.488471598613</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C2" t="n">
-        <v>47.31297010154361</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D2" t="n">
-        <v>47.31297010154361</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154361</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M2" t="n">
-        <v>1392.575851912381</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U2" t="n">
-        <v>2340.032375784546</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V2" t="n">
-        <v>1997.925566488064</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W2" t="n">
-        <v>1626.926531456352</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X2" t="n">
-        <v>1237.473926389409</v>
+        <v>2549.990225079884</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.9832173100099</v>
+        <v>2549.990225079884</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>367.0521161637701</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>952.5501211703722</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M4" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N4" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O4" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P4" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.894343300404</v>
+        <v>1292.766560750923</v>
       </c>
       <c r="C5" t="n">
-        <v>1586.894343300404</v>
+        <v>1292.766560750923</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.453214517072</v>
+        <v>1292.766560750923</v>
       </c>
       <c r="E5" t="n">
-        <v>1201.453214517072</v>
+        <v>890.1830358674679</v>
       </c>
       <c r="F5" t="n">
-        <v>784.5587760470498</v>
+        <v>473.2885973974456</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>473.2885973974456</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>149.2055469639363</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T5" t="n">
-        <v>2239.137781945205</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U5" t="n">
-        <v>1983.385052379803</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V5" t="n">
-        <v>1983.385052379803</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="W5" t="n">
-        <v>1983.385052379803</v>
+        <v>2479.204620608662</v>
       </c>
       <c r="X5" t="n">
-        <v>1983.385052379803</v>
+        <v>2089.752015541719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1586.894343300404</v>
+        <v>1693.26130646232</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M6" t="n">
-        <v>850.6182020620834</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>824.8590032756731</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>824.8590032756731</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>824.8590032756731</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K7" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M7" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N7" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O7" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P7" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q7" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S7" t="n">
-        <v>824.8590032756731</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T7" t="n">
-        <v>824.8590032756731</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U7" t="n">
-        <v>824.8590032756731</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="V7" t="n">
-        <v>824.8590032756731</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="W7" t="n">
-        <v>824.8590032756731</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="X7" t="n">
-        <v>824.8590032756731</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="Y7" t="n">
-        <v>824.8590032756731</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580.317802427575</v>
+        <v>1168.419567305365</v>
       </c>
       <c r="C8" t="n">
-        <v>1187.142300930505</v>
+        <v>775.2440658082955</v>
       </c>
       <c r="D8" t="n">
-        <v>1187.142300930505</v>
+        <v>775.2440658082955</v>
       </c>
       <c r="E8" t="n">
-        <v>784.5587760470498</v>
+        <v>775.2440658082955</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>775.2440658082955</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>362.0813102962987</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U8" t="n">
-        <v>2340.769442526231</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V8" t="n">
-        <v>2340.769442526231</v>
+        <v>2725.856662194817</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.770407494518</v>
+        <v>2354.857627163104</v>
       </c>
       <c r="X8" t="n">
-        <v>1580.317802427575</v>
+        <v>1965.405022096161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.317802427575</v>
+        <v>1568.914313016762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834974</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.14176221491</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>605.1912542874197</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>447.8653195003927</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>279.6112655998382</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>124.1327145613322</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K10" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M10" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N10" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O10" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P10" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q10" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>760.7500664282172</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1969.157795997781</v>
+        <v>2282.020157344956</v>
       </c>
       <c r="C11" t="n">
-        <v>1575.982294500712</v>
+        <v>1888.844655847886</v>
       </c>
       <c r="D11" t="n">
-        <v>1190.54116571738</v>
+        <v>1503.403527064554</v>
       </c>
       <c r="E11" t="n">
-        <v>787.9576408339242</v>
+        <v>1100.820002181099</v>
       </c>
       <c r="F11" t="n">
-        <v>371.063202363902</v>
+        <v>683.9255637110763</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>270.7628081990794</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
-        <v>503.6092283712875</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
-        <v>1049.610128415868</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>1577.42141205333</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.64850507718</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y11" t="n">
-        <v>1969.157795997781</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.875066013061</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>2218.395348604042</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X12" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K13" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M13" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N13" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O13" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P13" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q13" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1179.210445219441</v>
+        <v>1886.70464579063</v>
       </c>
       <c r="C14" t="n">
-        <v>786.0349437223717</v>
+        <v>1493.52914429356</v>
       </c>
       <c r="D14" t="n">
-        <v>786.0349437223717</v>
+        <v>1493.52914429356</v>
       </c>
       <c r="E14" t="n">
-        <v>786.0349437223717</v>
+        <v>1090.945619410105</v>
       </c>
       <c r="F14" t="n">
-        <v>460.4757256135405</v>
+        <v>674.0511809400824</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>260.8884254280856</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>540.6332618200724</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
-        <v>1086.634161864653</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>1614.445445502115</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
-        <v>2054.485046394444</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="X14" t="n">
-        <v>1976.195900010237</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="Y14" t="n">
-        <v>1579.705190930838</v>
+        <v>2287.199391502027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M15" t="n">
-        <v>1436.116207068686</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N15" t="n">
-        <v>1960.027136360782</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X15" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K16" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M16" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N16" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O16" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P16" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q16" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>882.0615091076409</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U16" t="n">
-        <v>596.6227173495417</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V16" t="n">
-        <v>330.643372170366</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>770.2184964732505</v>
+        <v>2308.970930414981</v>
       </c>
       <c r="C17" t="n">
-        <v>377.0429949761811</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U17" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V17" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W17" t="n">
-        <v>1956.65655633099</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X17" t="n">
-        <v>1567.203951264046</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y17" t="n">
-        <v>1170.713242184647</v>
+        <v>2709.465676126377</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>54.70361680265887</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>374.4427628648853</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>858.0088487631986</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631986</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769801</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>882.0615091076409</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U19" t="n">
-        <v>596.6227173495417</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V19" t="n">
-        <v>330.643372170366</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154361</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>727.1591490138585</v>
+        <v>917.7147965422296</v>
       </c>
       <c r="C20" t="n">
-        <v>447.5602564874478</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="D20" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E20" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F20" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5783,19 +5785,19 @@
         <v>2882.455782765193</v>
       </c>
       <c r="U20" t="n">
-        <v>2626.703053199792</v>
+        <v>2817.258700728163</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.59624390331</v>
+        <v>2475.151891431681</v>
       </c>
       <c r="W20" t="n">
-        <v>1913.597208871598</v>
+        <v>2104.152856399969</v>
       </c>
       <c r="X20" t="n">
-        <v>1524.144603804654</v>
+        <v>1714.700251333025</v>
       </c>
       <c r="Y20" t="n">
-        <v>1127.653894725255</v>
+        <v>1318.209542253627</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5944,13 +5946,13 @@
         <v>678.1273584875689</v>
       </c>
       <c r="V22" t="n">
-        <v>412.1480133083932</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W22" t="n">
-        <v>128.8176112395708</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="X22" t="n">
-        <v>62.11912770411553</v>
+        <v>160.7166342017296</v>
       </c>
       <c r="Y22" t="n">
         <v>62.11912770411553</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>617.350683081673</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C23" t="n">
-        <v>617.350683081673</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D23" t="n">
-        <v>617.350683081673</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E23" t="n">
-        <v>617.350683081673</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6002,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S23" t="n">
-        <v>2996.147919273591</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T23" t="n">
-        <v>2772.647316833007</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U23" t="n">
-        <v>2516.894587267606</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="V23" t="n">
-        <v>2174.787777971124</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="W23" t="n">
-        <v>1803.788742939412</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="X23" t="n">
-        <v>1414.336137872469</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y23" t="n">
-        <v>1017.84542879307</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,25 +6065,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L24" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1863.93438008877</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.4289614766272</v>
+        <v>352.4299865535593</v>
       </c>
       <c r="C25" t="n">
-        <v>176.4289614766272</v>
+        <v>182.2248686195485</v>
       </c>
       <c r="D25" t="n">
-        <v>176.4289614766272</v>
+        <v>182.2248686195485</v>
       </c>
       <c r="E25" t="n">
-        <v>176.4289614766272</v>
+        <v>182.2248686195485</v>
       </c>
       <c r="F25" t="n">
-        <v>176.4289614766272</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N25" t="n">
         <v>677.5630210573304</v>
@@ -6172,25 +6174,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T25" t="n">
-        <v>727.847098413902</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U25" t="n">
-        <v>442.408306655803</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="V25" t="n">
-        <v>176.4289614766272</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="W25" t="n">
-        <v>176.4289614766272</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="X25" t="n">
-        <v>176.4289614766272</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="Y25" t="n">
-        <v>176.4289614766272</v>
+        <v>537.6380052448606</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1440.393671672291</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C26" t="n">
-        <v>1047.218170175221</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D26" t="n">
-        <v>661.777041391889</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E26" t="n">
-        <v>386.2021781376249</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F26" t="n">
-        <v>386.2021781376249</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G26" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6260,16 +6262,16 @@
         <v>2939.442830146827</v>
       </c>
       <c r="V26" t="n">
-        <v>2597.336020850345</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W26" t="n">
-        <v>2226.336985818633</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X26" t="n">
-        <v>1836.88438075169</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="Y26" t="n">
-        <v>1440.393671672291</v>
+        <v>2936.291389902433</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M27" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N27" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O27" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P27" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E28" t="n">
-        <v>2685.567902390311</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F28" t="n">
-        <v>2528.241967603284</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G28" t="n">
-        <v>2359.98791370273</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H28" t="n">
         <v>2204.509362664224</v>
@@ -6406,28 +6408,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R28" t="n">
-        <v>3105.956385205776</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S28" t="n">
-        <v>3105.956385205776</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="T28" t="n">
-        <v>3105.956385205776</v>
+        <v>2755.927499601498</v>
       </c>
       <c r="U28" t="n">
-        <v>2820.517593447677</v>
+        <v>2470.488707843399</v>
       </c>
       <c r="V28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="W28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="X28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1757.180013910635</v>
+        <v>950.6597514544419</v>
       </c>
       <c r="C29" t="n">
-        <v>1757.180013910635</v>
+        <v>557.4842499573724</v>
       </c>
       <c r="D29" t="n">
-        <v>1757.180013910635</v>
+        <v>172.0431211740402</v>
       </c>
       <c r="E29" t="n">
-        <v>1354.596489027179</v>
+        <v>172.0431211740402</v>
       </c>
       <c r="F29" t="n">
-        <v>937.702050557157</v>
+        <v>172.0431211740402</v>
       </c>
       <c r="G29" t="n">
-        <v>524.5392950451601</v>
+        <v>172.0431211740402</v>
       </c>
       <c r="H29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>2677.949313991765</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V29" t="n">
-        <v>2554.165468701431</v>
+        <v>2508.096846343894</v>
       </c>
       <c r="W29" t="n">
-        <v>2554.165468701431</v>
+        <v>2137.097811312181</v>
       </c>
       <c r="X29" t="n">
-        <v>2554.165468701431</v>
+        <v>1747.645206245238</v>
       </c>
       <c r="Y29" t="n">
-        <v>2157.674759622032</v>
+        <v>1351.154497165839</v>
       </c>
     </row>
     <row r="30">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.11912770411553</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="C31" t="n">
-        <v>62.11912770411553</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="D31" t="n">
-        <v>62.11912770411553</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="E31" t="n">
-        <v>62.11912770411553</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="F31" t="n">
-        <v>62.11912770411553</v>
+        <v>2528.241967603284</v>
       </c>
       <c r="G31" t="n">
-        <v>62.11912770411553</v>
+        <v>2359.98791370273</v>
       </c>
       <c r="H31" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J31" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K31" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L31" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M31" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N31" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O31" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P31" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q31" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R31" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S31" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T31" t="n">
-        <v>896.8676667102127</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U31" t="n">
-        <v>611.4288749521137</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="V31" t="n">
-        <v>345.4495297729379</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="W31" t="n">
-        <v>62.11912770411553</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="X31" t="n">
-        <v>62.11912770411553</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.11912770411553</v>
+        <v>2554.538248268502</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>919.1433893198298</v>
+        <v>1243.319282867973</v>
       </c>
       <c r="C32" t="n">
-        <v>525.9678878227603</v>
+        <v>850.1437813709033</v>
       </c>
       <c r="D32" t="n">
-        <v>524.5392950451601</v>
+        <v>464.702652587571</v>
       </c>
       <c r="E32" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F32" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6722,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U32" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V32" t="n">
-        <v>2080.089775129883</v>
+        <v>2800.756377757424</v>
       </c>
       <c r="W32" t="n">
-        <v>1709.09074009817</v>
+        <v>2429.757342725712</v>
       </c>
       <c r="X32" t="n">
-        <v>1319.638135031227</v>
+        <v>2040.304737658769</v>
       </c>
       <c r="Y32" t="n">
-        <v>1319.638135031227</v>
+        <v>1643.81402857937</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N33" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
         <v>2146.089571124861</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2204.509362664224</v>
+        <v>555.24607037101</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.509362664224</v>
+        <v>555.24607037101</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>555.24607037101</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>555.24607037101</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3039.257901670321</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3039.257901670321</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>3039.257901670321</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>2753.819109912222</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V34" t="n">
-        <v>2487.839764733046</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W34" t="n">
-        <v>2204.509362664224</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X34" t="n">
-        <v>2204.509362664224</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.509362664224</v>
+        <v>740.4540890623113</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1548.519290316325</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C35" t="n">
-        <v>1548.519290316325</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D35" t="n">
-        <v>1548.519290316325</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E35" t="n">
-        <v>1216.259372119644</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F35" t="n">
-        <v>799.3649336496217</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G35" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H35" t="n">
         <v>62.11912770411553</v>
@@ -6962,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W35" t="n">
-        <v>2734.957350174064</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="X35" t="n">
-        <v>2345.50474510712</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y35" t="n">
-        <v>1949.014036027722</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7016,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.11912770411553</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="C37" t="n">
-        <v>62.11912770411553</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="D37" t="n">
-        <v>62.11912770411553</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="E37" t="n">
-        <v>62.11912770411553</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="F37" t="n">
-        <v>62.11912770411553</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="G37" t="n">
-        <v>62.11912770411553</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="H37" t="n">
-        <v>62.11912770411553</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7117,28 +7119,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>957.4812936553146</v>
       </c>
       <c r="S37" t="n">
-        <v>963.5661502456679</v>
+        <v>754.665209837864</v>
       </c>
       <c r="T37" t="n">
-        <v>896.8676667102127</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="U37" t="n">
-        <v>611.4288749521137</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="V37" t="n">
-        <v>345.4495297729379</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="W37" t="n">
-        <v>62.11912770411553</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="X37" t="n">
-        <v>62.11912770411553</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.11912770411553</v>
+        <v>518.9461580060981</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1354.596489027179</v>
+        <v>2012.018398500169</v>
       </c>
       <c r="C38" t="n">
-        <v>1354.596489027179</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="D38" t="n">
-        <v>1354.596489027179</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E38" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F38" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7187,37 +7189,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>3064.756582856366</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.196584426364</v>
+        <v>2809.003853290965</v>
       </c>
       <c r="V38" t="n">
-        <v>2126.090269770289</v>
+        <v>2809.003853290965</v>
       </c>
       <c r="W38" t="n">
-        <v>1755.091234738576</v>
+        <v>2809.003853290965</v>
       </c>
       <c r="X38" t="n">
-        <v>1755.091234738576</v>
+        <v>2809.003853290965</v>
       </c>
       <c r="Y38" t="n">
-        <v>1755.091234738576</v>
+        <v>2412.513144211566</v>
       </c>
     </row>
     <row r="39">
@@ -7236,10 +7238,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7248,25 +7250,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="C40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D40" t="n">
-        <v>807.9330371481826</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E40" t="n">
-        <v>676.2720927931252</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F40" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G40" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H40" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N40" t="n">
         <v>677.5630210573304</v>
@@ -7354,28 +7356,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S40" t="n">
-        <v>963.5661502456679</v>
+        <v>817.3572935109974</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>581.6382416792314</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411551</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.464461641553</v>
+        <v>1753.004770289087</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.288960144484</v>
+        <v>1359.829268792017</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.288960144484</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F41" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H41" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7418,43 +7420,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146826</v>
       </c>
       <c r="T41" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146826</v>
       </c>
       <c r="U41" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146826</v>
       </c>
       <c r="V41" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146826</v>
       </c>
       <c r="W41" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146826</v>
       </c>
       <c r="X41" t="n">
-        <v>2901.449916432349</v>
+        <v>2549.990225079883</v>
       </c>
       <c r="Y41" t="n">
-        <v>2504.95920735295</v>
+        <v>2153.499516000484</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L42" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>494.7707212490415</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C43" t="n">
-        <v>494.7707212490415</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D43" t="n">
-        <v>494.7707212490415</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E43" t="n">
-        <v>494.7707212490415</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F43" t="n">
-        <v>494.7707212490415</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G43" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H43" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I43" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7591,28 +7593,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R43" t="n">
-        <v>963.5661502456679</v>
+        <v>849.2563164731562</v>
       </c>
       <c r="S43" t="n">
-        <v>760.7500664282172</v>
+        <v>849.2563164731562</v>
       </c>
       <c r="T43" t="n">
-        <v>760.7500664282172</v>
+        <v>613.5372646413903</v>
       </c>
       <c r="U43" t="n">
-        <v>760.7500664282172</v>
+        <v>328.0984728832913</v>
       </c>
       <c r="V43" t="n">
-        <v>494.7707212490415</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="W43" t="n">
-        <v>494.7707212490415</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X43" t="n">
-        <v>494.7707212490415</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y43" t="n">
-        <v>494.7707212490415</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1665.394817750351</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C44" t="n">
-        <v>1665.394817750351</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="D44" t="n">
-        <v>1279.953688967018</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3701640835627</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N44" t="n">
-        <v>1973.427801529577</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T44" t="n">
-        <v>2142.147902636597</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U44" t="n">
-        <v>2142.147902636597</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="V44" t="n">
-        <v>2142.147902636597</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="W44" t="n">
-        <v>2054.847422817294</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X44" t="n">
-        <v>1665.394817750351</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.394817750351</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415753</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016675</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231478</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340356</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171674</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890318</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963275</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154434</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154361</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L45" t="n">
-        <v>530.8790559998569</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1116.377061006459</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1701.875066013061</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>2218.395348604042</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257018</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825366</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1932.719342560937</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C46" t="n">
-        <v>1932.719342560937</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D46" t="n">
-        <v>1777.086229463452</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E46" t="n">
-        <v>1621.527417322655</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.201482535628</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645569</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519369</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857633</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888842</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.350142930551</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707129</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.64850507718</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>2241.747515709757</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>2038.931431892307</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>1932.719342560937</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>1932.719342560937</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.719342560937</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W46" t="n">
-        <v>1932.719342560937</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X46" t="n">
-        <v>1932.719342560937</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y46" t="n">
-        <v>1932.719342560937</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +7987,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,25 +8057,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>581.2880043687418</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8228,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,16 +8297,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>447.5171231095472</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8465,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118428</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8708,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8775,16 +8777,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>235.8239269133925</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8924,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
@@ -8942,10 +8944,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,19 +9008,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>614.5750717350721</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9176,13 +9178,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>89.90975703142958</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>609.3287968270082</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9492,10 +9494,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9714,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,13 +9728,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9954,16 +9956,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10428,22 +10430,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N33" t="n">
-        <v>223.122899967847</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10662,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>499.3034269858954</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10680,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10902,7 +10904,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10917,7 +10919,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11142,7 +11144,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11157,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11309,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,22 +11378,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.4381531743244</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>227.8352342700393</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22708,7 +22710,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>50.73819067123728</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,7 +22837,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>96.01998051552151</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22844,10 +22846,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -22948,22 +22950,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>22.31857408727987</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22990,13 +22992,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>130.3195537952426</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23027,7 +23029,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -23036,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>23.87965916291296</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -23075,10 +23077,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>228.5649303443073</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,7 +23184,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23197,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>100.4445175928074</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,7 +23229,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>88.51839801714209</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>114.28497623916</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
@@ -23321,7 +23323,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23501,16 +23503,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>90.42186815757907</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>124.0606151824439</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23543,13 +23545,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23558,7 +23560,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>154.8494418714224</v>
       </c>
     </row>
     <row r="17">
@@ -23732,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>224.5574566382954</v>
       </c>
       <c r="D17" t="n">
-        <v>55.15399286960786</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -23792,10 +23794,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>154.8494418714224</v>
       </c>
     </row>
     <row r="20">
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>112.4408428809521</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23984,10 +23986,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>188.6500910530875</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>123.2694091388851</v>
       </c>
     </row>
     <row r="23">
@@ -24206,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>93.75102281282943</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>110.5774867114546</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24373,10 +24375,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>36.84799193287812</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40477792676236</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24412,16 +24414,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24430,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>125.7385750128993</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.4058761466552</v>
       </c>
     </row>
     <row r="27">
@@ -24607,16 +24609,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>20.40302987259699</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>210.2831670182379</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>212.0174663939488</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>216.1397343660854</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>129.7193575805913</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24889,7 +24891,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24920,10 +24922,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>380.1724106456747</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -24932,10 +24934,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>36.53773382964818</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25084,19 +25086,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>149.8902496700531</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>56.63048077364778</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -25129,19 +25131,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>69.62037061990702</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25202,7 +25204,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
@@ -25214,7 +25216,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>275.4259062198136</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>116.637971449299</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25391,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>180.4777920902623</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>45.54048969400208</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25552,22 +25554,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>23.65888910788271</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>178.703134285701</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25612,7 +25614,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>317.167989495296</v>
       </c>
       <c r="E41" t="n">
-        <v>45.43214322848974</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,16 +25800,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>54.00816986164516</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>9.49524403896217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>152.3195699869357</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
@@ -25925,13 +25927,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>280.8615696602852</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,16 +26028,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>100.5400146614482</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>128.2118928753924</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>609972.6582450472</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>609972.6582450472</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>609972.658245047</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609972.658245047</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609972.6582450474</v>
+        <v>687184.4699983983</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>609972.6582450476</v>
+        <v>687184.4699983983</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687184.4699983984</v>
+        <v>687184.4699983983</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>687184.4699983984</v>
+        <v>687184.469998398</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>687184.4699983983</v>
+        <v>687184.4699983984</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>687184.4699983984</v>
+        <v>687184.4699983986</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>687184.4699983983</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>687184.4699983982</v>
+        <v>687184.4699983979</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>687184.4699983982</v>
+        <v>687184.4699983979</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609972.658245047</v>
+        <v>687184.469998398</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191980.2613012999</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="C2" t="n">
-        <v>191980.2613012999</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="D2" t="n">
-        <v>191980.2613012999</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="E2" t="n">
-        <v>191980.2613012999</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="F2" t="n">
-        <v>191980.2613012998</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="G2" t="n">
-        <v>191980.2613012998</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="H2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="I2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="J2" t="n">
-        <v>216278.5473416249</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="K2" t="n">
         <v>216278.5473416248</v>
       </c>
       <c r="L2" t="n">
-        <v>216278.5473416249</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="M2" t="n">
         <v>216278.5473416247</v>
       </c>
       <c r="N2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="O2" t="n">
         <v>216278.5473416247</v>
       </c>
       <c r="P2" t="n">
-        <v>191980.2613012998</v>
+        <v>216278.5473416247</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>260219.3554198288</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656034</v>
+        <v>203163.7131126951</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11907.28194961663</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="C4" t="n">
-        <v>11907.28194961663</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="D4" t="n">
-        <v>11907.28194961663</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="E4" t="n">
-        <v>11907.28194961663</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="F4" t="n">
-        <v>11907.28194961663</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="G4" t="n">
-        <v>11907.28194961663</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="H4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="I4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="J4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="K4" t="n">
         <v>13453.11359961299</v>
@@ -26448,16 +26450,16 @@
         <v>13453.11359961299</v>
       </c>
       <c r="M4" t="n">
+        <v>13453.11359961298</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13453.11359961298</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13453.11359961298</v>
+      </c>
+      <c r="P4" t="n">
         <v>13453.11359961299</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13453.11359961299</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13453.11359961299</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11907.28194961663</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
         <v>47210.5370551278</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26503,13 +26505,13 @@
         <v>47210.5370551278</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.53705512779</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87708.28391723483</v>
+        <v>-138232.0587329449</v>
       </c>
       <c r="C6" t="n">
-        <v>110487.5220745101</v>
+        <v>121987.296686884</v>
       </c>
       <c r="D6" t="n">
-        <v>110487.5220745101</v>
+        <v>121987.296686884</v>
       </c>
       <c r="E6" t="n">
-        <v>144115.1220745101</v>
+        <v>155614.8966868839</v>
       </c>
       <c r="F6" t="n">
-        <v>144115.12207451</v>
+        <v>155614.896686884</v>
       </c>
       <c r="G6" t="n">
-        <v>144115.12207451</v>
+        <v>155614.8966868839</v>
       </c>
       <c r="H6" t="n">
-        <v>105679.4644794799</v>
+        <v>155614.896686884</v>
       </c>
       <c r="I6" t="n">
+        <v>155614.8966868839</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-47548.81642581115</v>
+      </c>
+      <c r="K6" t="n">
         <v>155614.896686884</v>
       </c>
-      <c r="J6" t="n">
-        <v>875.4623212806691</v>
-      </c>
-      <c r="K6" t="n">
-        <v>155614.8966868841</v>
-      </c>
       <c r="L6" t="n">
-        <v>155614.8966868841</v>
+        <v>155614.896686884</v>
       </c>
       <c r="M6" t="n">
         <v>155614.8966868839</v>
@@ -26561,7 +26563,7 @@
         <v>155614.8966868839</v>
       </c>
       <c r="P6" t="n">
-        <v>144115.1220745101</v>
+        <v>155614.896686884</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -26823,13 +26825,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,10 +34707,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>495.9158915145752</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34948,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>362.1450102553806</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35185,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576762</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35428,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,16 +35497,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>148.7405620940779</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
@@ -35662,10 +35664,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>529.2029588809055</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35896,13 +35898,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7.465299698096228</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35971,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>516.9416747776963</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36212,10 +36214,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,13 +36448,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N33" t="n">
-        <v>137.7507871136803</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37400,7 +37402,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>35.05004611020362</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37637,7 +37639,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37877,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
         <v>362.6084404317796</v>
@@ -38029,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>860487.2337948845</v>
+        <v>855953.4106253866</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977813</v>
+        <v>7966425.477977803</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7945998.501803754</v>
+        <v>7945998.501803755</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.05164507995854</v>
+        <v>292.7364082288358</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -670,16 +670,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>199.2068543253987</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>86.21555506722254</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>152.2648500452755</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>296.9625607662613</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>191.0982260229669</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>31.31896351648546</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1387,7 +1387,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>206.5572436900142</v>
+        <v>261.9018936920802</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
@@ -1593,7 +1593,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -1624,7 +1624,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>196.7816047467303</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>77.11558323035426</v>
       </c>
     </row>
     <row r="15">
@@ -1830,10 +1830,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>164.6862898438033</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>208.0691981620887</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
@@ -1861,10 +1861,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2064,13 +2064,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>194.7838934887919</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>64.5451112166599</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>41.3142440495109</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.61153143263797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,7 +2332,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>256.7115579699408</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>118.9046835062787</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2572,10 +2572,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>8.00155109238602</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.119925841949662</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>23.07869429521026</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -2775,7 +2775,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>108.8247535352254</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>191.0982260229669</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>26.03331785856546</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>245.710051553393</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>302.1480073738686</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5.862425769103664</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3280,13 +3280,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>91.86313846158183</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>256.6058843702002</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.024008024449764</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>40.78780432591522</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>324.0170396777571</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>22.0847886935751</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>251.2218493092673</v>
       </c>
       <c r="D41" t="n">
-        <v>64.41872800020292</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3960,10 +3960,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>229.2671475085632</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.001551092386331</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>66.03149870010071</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2535.796644191037</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="C2" t="n">
-        <v>2142.621142693967</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="D2" t="n">
-        <v>1757.180013910635</v>
+        <v>877.8654080995678</v>
       </c>
       <c r="E2" t="n">
-        <v>1354.596489027179</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F2" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4360,22 +4360,22 @@
         <v>2939.442830146827</v>
       </c>
       <c r="T2" t="n">
-        <v>2939.442830146827</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U2" t="n">
-        <v>2939.442830146827</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V2" t="n">
-        <v>2939.442830146827</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W2" t="n">
-        <v>2939.442830146827</v>
+        <v>2344.943192674531</v>
       </c>
       <c r="X2" t="n">
-        <v>2549.990225079884</v>
+        <v>1955.490587607588</v>
       </c>
       <c r="Y2" t="n">
-        <v>2549.990225079884</v>
+        <v>1558.999878528189</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L3" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M3" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N3" t="n">
-        <v>1863.93438008877</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O3" t="n">
         <v>2380.454662679751</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4521,19 +4521,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.766560750923</v>
+        <v>1532.096596827357</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.766560750923</v>
+        <v>1138.921095330287</v>
       </c>
       <c r="D5" t="n">
-        <v>1292.766560750923</v>
+        <v>1138.921095330287</v>
       </c>
       <c r="E5" t="n">
-        <v>890.1830358674679</v>
+        <v>1138.921095330287</v>
       </c>
       <c r="F5" t="n">
-        <v>473.2885973974456</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G5" t="n">
-        <v>473.2885973974456</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H5" t="n">
-        <v>149.2055469639363</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4591,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U5" t="n">
-        <v>2850.203655640375</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V5" t="n">
-        <v>2850.203655640375</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="W5" t="n">
-        <v>2479.204620608662</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="X5" t="n">
-        <v>2089.752015541719</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="Y5" t="n">
-        <v>1693.26130646232</v>
+        <v>1932.591342538753</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N6" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O6" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P6" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U7" t="n">
-        <v>247.3271463954168</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V7" t="n">
-        <v>247.3271463954168</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W7" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X7" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1168.419567305365</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C8" t="n">
-        <v>775.2440658082955</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D8" t="n">
-        <v>775.2440658082955</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E8" t="n">
-        <v>775.2440658082955</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F8" t="n">
-        <v>775.2440658082955</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G8" t="n">
-        <v>362.0813102962987</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H8" t="n">
         <v>62.11912770411553</v>
@@ -4831,25 +4831,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V8" t="n">
-        <v>2725.856662194817</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="W8" t="n">
-        <v>2354.857627163104</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="X8" t="n">
-        <v>1965.405022096161</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.914313016762</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N9" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>605.1912542874197</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>447.8653195003927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>279.6112655998382</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>124.1327145613322</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4989,25 +4989,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>760.7500664282172</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U10" t="n">
-        <v>760.7500664282172</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V10" t="n">
-        <v>760.7500664282172</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W10" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X10" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2282.020157344956</v>
+        <v>1549.899190548942</v>
       </c>
       <c r="C11" t="n">
-        <v>1888.844655847886</v>
+        <v>1156.723689051872</v>
       </c>
       <c r="D11" t="n">
-        <v>1503.403527064554</v>
+        <v>1156.723689051872</v>
       </c>
       <c r="E11" t="n">
-        <v>1100.820002181099</v>
+        <v>1156.723689051872</v>
       </c>
       <c r="F11" t="n">
-        <v>683.9255637110763</v>
+        <v>739.82925058185</v>
       </c>
       <c r="G11" t="n">
-        <v>270.7628081990794</v>
+        <v>326.6664950698532</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5068,25 +5068,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U11" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V11" t="n">
-        <v>3067.963471491298</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W11" t="n">
-        <v>3067.963471491298</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="X11" t="n">
-        <v>2678.510866424355</v>
+        <v>1946.389899628341</v>
       </c>
       <c r="Y11" t="n">
-        <v>2282.020157344956</v>
+        <v>1549.899190548942</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5229,16 +5229,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U13" t="n">
-        <v>611.4288749521137</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V13" t="n">
-        <v>345.4495297729379</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W13" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X13" t="n">
         <v>62.11912770411553</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1886.70464579063</v>
+        <v>1601.700500902976</v>
       </c>
       <c r="C14" t="n">
-        <v>1493.52914429356</v>
+        <v>1601.700500902976</v>
       </c>
       <c r="D14" t="n">
-        <v>1493.52914429356</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="E14" t="n">
-        <v>1090.945619410105</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F14" t="n">
-        <v>674.0511809400824</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G14" t="n">
-        <v>260.8884254280856</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5302,28 +5302,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S14" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T14" t="n">
-        <v>2939.442830146827</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U14" t="n">
-        <v>2683.690100581426</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.690100581426</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W14" t="n">
-        <v>2683.690100581426</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X14" t="n">
-        <v>2683.690100581426</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="Y14" t="n">
-        <v>2287.199391502027</v>
+        <v>2002.195246614373</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5478,7 +5478,7 @@
         <v>128.8176112395708</v>
       </c>
       <c r="X16" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
         <v>62.11912770411553</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2308.970930414981</v>
+        <v>1880.963859200969</v>
       </c>
       <c r="C17" t="n">
-        <v>2142.621142693967</v>
+        <v>1487.7883577039</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.180013910635</v>
+        <v>1102.347228920568</v>
       </c>
       <c r="E17" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5539,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U17" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V17" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W17" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X17" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y17" t="n">
-        <v>2709.465676126377</v>
+        <v>2281.458604912366</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M18" t="n">
-        <v>1490.311599914302</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5703,19 +5703,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U19" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V19" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W19" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
         <v>62.11912770411553</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>917.7147965422296</v>
+        <v>1491.511254134026</v>
       </c>
       <c r="C20" t="n">
-        <v>524.5392950451601</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D20" t="n">
-        <v>524.5392950451601</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>524.5392950451601</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>524.5392950451601</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5776,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T20" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U20" t="n">
-        <v>2817.258700728163</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V20" t="n">
-        <v>2475.151891431681</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W20" t="n">
-        <v>2104.152856399969</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X20" t="n">
-        <v>1714.700251333025</v>
+        <v>2288.496708924822</v>
       </c>
       <c r="Y20" t="n">
-        <v>1318.209542253627</v>
+        <v>1892.005999845423</v>
       </c>
     </row>
     <row r="21">
@@ -5840,16 +5840,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.11912770411553</v>
+        <v>727.847098413902</v>
       </c>
       <c r="C22" t="n">
-        <v>62.11912770411553</v>
+        <v>727.847098413902</v>
       </c>
       <c r="D22" t="n">
-        <v>62.11912770411553</v>
+        <v>572.2139853164167</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411553</v>
+        <v>416.6551731756192</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>259.3292383885922</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H22" t="n">
         <v>62.11912770411553</v>
@@ -5940,22 +5940,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U22" t="n">
-        <v>678.1273584875689</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V22" t="n">
-        <v>678.1273584875689</v>
+        <v>727.847098413902</v>
       </c>
       <c r="W22" t="n">
-        <v>394.7969564187466</v>
+        <v>727.847098413902</v>
       </c>
       <c r="X22" t="n">
-        <v>160.7166342017296</v>
+        <v>727.847098413902</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.11912770411553</v>
+        <v>727.847098413902</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1660.213721337995</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C23" t="n">
-        <v>1267.038219840925</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D23" t="n">
-        <v>881.5970910575932</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>479.0135661741377</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411551</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6004,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V23" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W23" t="n">
-        <v>2846.651781195734</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X23" t="n">
-        <v>2457.199176128791</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y23" t="n">
-        <v>2060.708467049392</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="24">
@@ -6053,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6065,28 +6065,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2122.831274102045</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>352.4299865535593</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>182.2248686195485</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>182.2248686195485</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>182.2248686195485</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
         <v>677.5630210573304</v>
@@ -6174,25 +6174,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>760.7500664282172</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>760.7500664282172</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
-        <v>760.7500664282172</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>537.6380052448606</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2535.796644191037</v>
+        <v>1696.017722907454</v>
       </c>
       <c r="C26" t="n">
-        <v>2142.621142693967</v>
+        <v>1302.842221410384</v>
       </c>
       <c r="D26" t="n">
-        <v>1757.180013910635</v>
+        <v>1302.842221410384</v>
       </c>
       <c r="E26" t="n">
-        <v>1354.596489027179</v>
+        <v>900.2586965269286</v>
       </c>
       <c r="F26" t="n">
-        <v>937.702050557157</v>
+        <v>483.3642580569064</v>
       </c>
       <c r="G26" t="n">
-        <v>524.5392950451601</v>
+        <v>70.20150254490949</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>70.20150254490949</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2939.442830146827</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U26" t="n">
-        <v>2939.442830146827</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V26" t="n">
-        <v>2939.442830146827</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W26" t="n">
-        <v>2939.442830146827</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X26" t="n">
-        <v>2939.442830146827</v>
+        <v>2493.00317769825</v>
       </c>
       <c r="Y26" t="n">
-        <v>2936.291389902433</v>
+        <v>2096.512468618851</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K28" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M28" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N28" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O28" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P28" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>2779.239312020903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>2755.927499601498</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U28" t="n">
-        <v>2470.488707843399</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V28" t="n">
-        <v>2204.509362664224</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>950.6597514544419</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C29" t="n">
-        <v>557.4842499573724</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D29" t="n">
-        <v>172.0431211740402</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E29" t="n">
-        <v>172.0431211740402</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F29" t="n">
-        <v>172.0431211740402</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>172.0431211740402</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6487,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2850.203655640375</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V29" t="n">
-        <v>2508.096846343894</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W29" t="n">
-        <v>2137.097811312181</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X29" t="n">
-        <v>1747.645206245238</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y29" t="n">
-        <v>1351.154497165839</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2554.538248268502</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>2554.538248268502</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2554.538248268502</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2554.538248268502</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2528.241967603284</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2359.98791370273</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>2820.517593447677</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V31" t="n">
-        <v>2554.538248268502</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W31" t="n">
-        <v>2554.538248268502</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X31" t="n">
-        <v>2554.538248268502</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>2554.538248268502</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1243.319282867973</v>
+        <v>1491.511254134026</v>
       </c>
       <c r="C32" t="n">
-        <v>850.1437813709033</v>
+        <v>1098.335752636957</v>
       </c>
       <c r="D32" t="n">
-        <v>464.702652587571</v>
+        <v>712.8946238536246</v>
       </c>
       <c r="E32" t="n">
-        <v>62.11912770411553</v>
+        <v>310.3110989701691</v>
       </c>
       <c r="F32" t="n">
-        <v>62.11912770411553</v>
+        <v>310.3110989701691</v>
       </c>
       <c r="G32" t="n">
         <v>62.11912770411553</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V32" t="n">
-        <v>2800.756377757424</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W32" t="n">
-        <v>2429.757342725712</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X32" t="n">
-        <v>2040.304737658769</v>
+        <v>2288.496708924822</v>
       </c>
       <c r="Y32" t="n">
-        <v>1643.81402857937</v>
+        <v>1892.005999845423</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>555.24607037101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>555.24607037101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>555.24607037101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>555.24607037101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
         <v>62.11912770411553</v>
@@ -6891,19 +6891,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W34" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X34" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1660.213721337995</v>
+        <v>1826.272464974195</v>
       </c>
       <c r="C35" t="n">
-        <v>1267.038219840925</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D35" t="n">
-        <v>881.5970910575932</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E35" t="n">
-        <v>479.0135661741377</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F35" t="n">
-        <v>62.11912770411553</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G35" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6964,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2939.442830146827</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U35" t="n">
-        <v>2939.442830146827</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V35" t="n">
-        <v>2939.442830146827</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W35" t="n">
-        <v>2846.651781195734</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X35" t="n">
-        <v>2457.199176128791</v>
+        <v>2623.257919764991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2060.708467049392</v>
+        <v>2226.767210685592</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7119,28 +7119,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>957.4812936553146</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>754.665209837864</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>518.9461580060981</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>518.9461580060981</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V37" t="n">
-        <v>518.9461580060981</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W37" t="n">
-        <v>518.9461580060981</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X37" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2012.018398500169</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C38" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D38" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7189,37 +7189,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>3064.756582856366</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>2809.003853290965</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="V38" t="n">
-        <v>2809.003853290965</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="W38" t="n">
-        <v>2809.003853290965</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="X38" t="n">
-        <v>2809.003853290965</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y38" t="n">
-        <v>2412.513144211566</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="39">
@@ -7238,10 +7238,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7250,28 +7250,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
         <v>677.5630210573304</v>
@@ -7356,28 +7356,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>817.3572935109974</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>581.6382416792314</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>296.1994499211324</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V40" t="n">
-        <v>296.1994499211324</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W40" t="n">
-        <v>296.1994499211324</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1753.004770289087</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C41" t="n">
-        <v>1359.829268792017</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D41" t="n">
         <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1763216861345</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7420,43 +7420,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2939.442830146826</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2939.442830146826</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2939.442830146826</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2939.442830146826</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W41" t="n">
-        <v>2939.442830146826</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X41" t="n">
-        <v>2549.990225079883</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y41" t="n">
-        <v>2153.499516000484</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7593,28 +7593,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R43" t="n">
-        <v>849.2563164731562</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>849.2563164731562</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>613.5372646413903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>328.0984728832913</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>62.11912770411552</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>62.11912770411552</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1919.518325348037</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C44" t="n">
-        <v>1526.342823850967</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D44" t="n">
         <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>892.1763216861345</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7657,43 +7657,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205775</v>
+        <v>3097.874010364982</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205775</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205775</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205775</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="W44" t="n">
-        <v>3105.956385205776</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X44" t="n">
-        <v>2716.503780138833</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y44" t="n">
-        <v>2320.013071059434</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
         <v>1458.313011372373</v>
@@ -7797,16 +7797,16 @@
         <v>128.8176112395708</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411552</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8069,10 +8069,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,10 +8294,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
@@ -8306,16 +8306,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>136.3731801151487</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8470,10 +8470,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8710,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8774,22 +8774,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8947,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>668.5665922884425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9248,19 +9248,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M18" t="n">
-        <v>609.3287968270082</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9488,19 +9488,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9725,7 +9725,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9734,10 +9734,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>347.309009847301</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,25 +9953,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10603,7 +10603,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10667,25 +10667,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>499.3034269858954</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,7 +11384,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>691.2645480167034</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.4381531743244</v>
+        <v>103.7533900254471</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22558,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -22609,13 +22609,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100.5400146614482</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,13 +22761,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>213.5186397599233</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>50.73819067123728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -22843,16 +22843,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>130.3195537952426</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23029,16 +23029,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>23.87965916291296</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>147.5875151805498</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23187,22 +23187,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>100.4445175928074</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23229,19 +23229,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>114.28497623916</v>
+        <v>58.94032623709404</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23469,7 +23469,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>124.0606151824439</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>315.4102187582506</v>
       </c>
     </row>
     <row r="15">
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.8494418714224</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>190.4884914725322</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23943,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.8494418714224</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>194.4598529933068</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>188.6500910530875</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>125.257269312038</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>123.2694091388851</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
@@ -24268,7 +24268,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>110.5774867114546</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24375,7 +24375,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>36.84799193287812</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -24414,25 +24414,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>128.9521946460738</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -24508,10 +24508,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.4058761466552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>210.2831670182379</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>212.0174663939488</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>194.4598529933068</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>129.7193575805913</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24931,7 +24931,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>163.3210764034838</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>36.53773382964818</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25086,19 +25086,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>149.8902496700531</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -25216,10 +25216,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>275.4259062198136</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>128.9521946460735</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>116.637971449299</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>180.4777920902623</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>61.54103933851661</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>178.703134285701</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>138.0218971728314</v>
       </c>
       <c r="D41" t="n">
-        <v>317.167989495296</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25690,7 +25690,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.49524403896217</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>152.3195699869357</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>156.8468684159736</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
@@ -26037,10 +26037,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>100.5400146614482</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>87.89226682802024</v>
       </c>
       <c r="I46" t="n">
         <v>131.7634811092929</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>687184.4699983982</v>
+        <v>687184.4699983983</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>687184.4699983982</v>
+        <v>687184.4699983983</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>687184.4699983982</v>
+        <v>687184.4699983983</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>687184.4699983982</v>
+        <v>687184.4699983983</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>687184.4699983983</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687184.4699983983</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>687184.469998398</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>687184.4699983984</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>687184.4699983986</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>687184.4699983982</v>
+        <v>687184.4699983983</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>687184.4699983979</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>687184.4699983979</v>
+        <v>687184.4699983983</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>687184.469998398</v>
+        <v>687184.4699983982</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>216278.5473416247</v>
       </c>
       <c r="D2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="E2" t="n">
         <v>216278.5473416247</v>
@@ -26331,19 +26331,19 @@
         <v>216278.5473416247</v>
       </c>
       <c r="H2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="I2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="J2" t="n">
         <v>216278.5473416247</v>
       </c>
       <c r="K2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="L2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="M2" t="n">
         <v>216278.5473416247</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.7131126951</v>
+        <v>203163.713112695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="C4" t="n">
         <v>13453.11359961299</v>
@@ -26429,10 +26429,10 @@
         <v>13453.11359961298</v>
       </c>
       <c r="F4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="G4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="H4" t="n">
         <v>13453.11359961298</v>
@@ -26441,7 +26441,7 @@
         <v>13453.11359961298</v>
       </c>
       <c r="J4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="K4" t="n">
         <v>13453.11359961299</v>
@@ -26450,7 +26450,7 @@
         <v>13453.11359961299</v>
       </c>
       <c r="M4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="N4" t="n">
         <v>13453.11359961298</v>
@@ -26459,7 +26459,7 @@
         <v>13453.11359961298</v>
       </c>
       <c r="P4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26505,13 +26505,13 @@
         <v>47210.5370551278</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-138232.0587329449</v>
+        <v>-138763.1537648101</v>
       </c>
       <c r="C6" t="n">
-        <v>121987.296686884</v>
+        <v>121456.2016550187</v>
       </c>
       <c r="D6" t="n">
-        <v>121987.296686884</v>
+        <v>121456.2016550188</v>
       </c>
       <c r="E6" t="n">
-        <v>155614.8966868839</v>
+        <v>155083.8016550188</v>
       </c>
       <c r="F6" t="n">
-        <v>155614.896686884</v>
+        <v>155083.8016550188</v>
       </c>
       <c r="G6" t="n">
-        <v>155614.8966868839</v>
+        <v>155083.8016550188</v>
       </c>
       <c r="H6" t="n">
-        <v>155614.896686884</v>
+        <v>155083.8016550188</v>
       </c>
       <c r="I6" t="n">
-        <v>155614.8966868839</v>
+        <v>155083.8016550188</v>
       </c>
       <c r="J6" t="n">
-        <v>-47548.81642581115</v>
+        <v>-48079.91145767631</v>
       </c>
       <c r="K6" t="n">
-        <v>155614.896686884</v>
+        <v>155083.8016550188</v>
       </c>
       <c r="L6" t="n">
-        <v>155614.896686884</v>
+        <v>155083.8016550187</v>
       </c>
       <c r="M6" t="n">
-        <v>155614.8966868839</v>
+        <v>155083.8016550188</v>
       </c>
       <c r="N6" t="n">
-        <v>155614.896686884</v>
+        <v>155083.8016550188</v>
       </c>
       <c r="O6" t="n">
-        <v>155614.8966868839</v>
+        <v>155083.8016550188</v>
       </c>
       <c r="P6" t="n">
-        <v>155614.896686884</v>
+        <v>155083.8016550188</v>
       </c>
     </row>
   </sheetData>
@@ -26810,7 +26810,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -26825,13 +26825,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34789,10 +34789,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
@@ -35026,16 +35026,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>51.00106726098203</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35190,10 +35190,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>583.1944794342759</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M18" t="n">
-        <v>516.9416747776963</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36208,19 +36208,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>260.2256450279863</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37387,25 +37387,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>409.2430801289772</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>35.05004611020362</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38104,7 +38104,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>598.8774259673916</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
